--- a/medicine/Mort/Cimetière_Nord_de_Clichy/Cimetière_Nord_de_Clichy.xlsx
+++ b/medicine/Mort/Cimetière_Nord_de_Clichy/Cimetière_Nord_de_Clichy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Nord_de_Clichy</t>
+          <t>Cimetière_Nord_de_Clichy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Nord de Clichy est un des cimetières de la ville de Clichy dans les Hauts-de-Seine. Il est situé rue du Général-Roguet[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Nord de Clichy est un des cimetières de la ville de Clichy dans les Hauts-de-Seine. Il est situé rue du Général-Roguet.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Nord_de_Clichy</t>
+          <t>Cimetière_Nord_de_Clichy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière fut créé pour suppléer au manque de place du cimetière Sud, dit dès lors cimetière ancien, tandis qu'il devient le nouveau cimetière.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Nord_de_Clichy</t>
+          <t>Cimetière_Nord_de_Clichy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La porte monumentale est l'œuvre des frères Louis et Pierre Guidetti, gagnants d'un concours en 1922.
-Il s'y trouve un carré militaire[2].
-Un columbarium est ouvert en 2010[3].
+Il s'y trouve un carré militaire.
+Un columbarium est ouvert en 2010.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Nord_de_Clichy</t>
+          <t>Cimetière_Nord_de_Clichy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Personnalités reposant dans ce cimetière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Charles Auffray (1887-1957), ancien maire de la ville.
 Le comédien Michel Beaune (1933-1990).
 Le comédien Yves Deniaud (1901-1959).
-Jacques Mesrine (1936-1979)[4], « ennemi public n° 1 » dans les années 1970, et son fils Bruno (1964-2022), prestidigitateur[5].</t>
+Jacques Mesrine (1936-1979), « ennemi public n° 1 » dans les années 1970, et son fils Bruno (1964-2022), prestidigitateur.</t>
         </is>
       </c>
     </row>
